--- a/БЛОК-ПРОЦЕССЫ/Процессы/Основные/02.Поступление взносов/02.УСЛ.ПРАВ.ОГР.ТРЕБ_v2.xlsx
+++ b/БЛОК-ПРОЦЕССЫ/Процессы/Основные/02.Поступление взносов/02.УСЛ.ПРАВ.ОГР.ТРЕБ_v2.xlsx
@@ -5,26 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bortnik.ve\Documents\GIT\NPF\Данные по процессам\Карточки процессов\Ключевые\02.Поступление взносов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bortnik.ve\Documents\GIT\HMNPF_v2\БЛОК-ПРОЦЕССЫ\Процессы\Основные\02.Поступление взносов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94143CF1-31F3-4CC2-A626-DC8749BB410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65303F9A-612E-4EA2-BC8D-0F3BE9A7D73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{878154EB-34D2-403F-9203-417A815A8841}"/>
+    <workbookView xWindow="2130" yWindow="2100" windowWidth="28770" windowHeight="17370" xr2:uid="{878154EB-34D2-403F-9203-417A815A8841}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -521,13 +512,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -541,15 +560,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF856D2B-6F62-427E-A334-ADD1AF404134}" name="Таблица1" displayName="Таблица1" ref="A1:F40" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF856D2B-6F62-427E-A334-ADD1AF404134}" name="Таблица1" displayName="Таблица1" ref="A1:F40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:F40" xr:uid="{4781ABC4-1488-4688-9CA4-C1788C204D3C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Категория"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Описание"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Нормативный источник"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Временное ограничение"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Номер задачи"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Номер артефакта"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Категория" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Описание" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Нормативный источник" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Временное ограничение" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Номер задачи" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Номер артефакта" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -855,755 +874,776 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection sqref="A1:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="4" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>33</v>
       </c>
     </row>
